--- a/documents/templates/bulk-upload/17-BulkUploadRoleAccessLevelRelation.xlsx
+++ b/documents/templates/bulk-upload/17-BulkUploadRoleAccessLevelRelation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2557D21F-B415-4547-9255-B8383417413B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A246BF02-EB14-5F45-A4E8-6A6FCB413935}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>AccessLevel</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>Role</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>URI</t>
   </si>
 </sst>
 </file>
@@ -424,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -435,316 +444,433 @@
     <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>27</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/documents/templates/bulk-upload/17-BulkUploadRoleAccessLevelRelation.xlsx
+++ b/documents/templates/bulk-upload/17-BulkUploadRoleAccessLevelRelation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A246BF02-EB14-5F45-A4E8-6A6FCB413935}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E2113A-C077-CD43-A74F-59A0D435014A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/documents/templates/bulk-upload/17-BulkUploadRoleAccessLevelRelation.xlsx
+++ b/documents/templates/bulk-upload/17-BulkUploadRoleAccessLevelRelation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E2113A-C077-CD43-A74F-59A0D435014A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A246BF02-EB14-5F45-A4E8-6A6FCB413935}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
